--- a/DestroyViruses/Assets/Tables/TableWeapon.xlsx
+++ b/DestroyViruses/Assets/Tables/TableWeapon.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21800" windowHeight="9180"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -102,9 +102,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -121,6 +121,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -129,37 +130,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,66 +160,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -249,9 +167,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,6 +248,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -274,49 +274,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,133 +442,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,11 +468,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,6 +494,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,26 +531,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -551,165 +546,170 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -719,54 +719,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1062,25 +1062,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="10.4615384615385" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.3846153846154" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7692307692308" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.3365384615385" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7692307692308" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1634615384615" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7692307692308" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.1634615384615" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.4583333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.3833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7666666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1666666666667" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1170,7 +1170,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>20</v>
@@ -1210,7 +1210,7 @@
         <v>60</v>
       </c>
       <c r="E6" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>25</v>
@@ -1224,7 +1224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1232,7 +1232,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1240,7 +1240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1248,7 +1248,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableWeapon.xlsx
+++ b/DestroyViruses/Assets/Tables/TableWeapon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="26415" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,11 +16,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>nameID</t>
+  </si>
+  <si>
+    <t>descriptionID</t>
+  </si>
+  <si>
     <t>icon</t>
   </si>
   <si>
@@ -48,6 +57,15 @@
     <t>ID</t>
   </si>
   <si>
+    <t>程序用</t>
+  </si>
+  <si>
+    <t>多语言</t>
+  </si>
+  <si>
+    <t>描述多语言</t>
+  </si>
+  <si>
     <t>武器图标</t>
   </si>
   <si>
@@ -75,6 +93,12 @@
     <t>基础武器</t>
   </si>
   <si>
+    <t>WeaponNormal</t>
+  </si>
+  <si>
+    <t>icon_weapon_normal</t>
+  </si>
+  <si>
     <t>飞行速度</t>
   </si>
   <si>
@@ -84,6 +108,12 @@
     <t>追踪导弹</t>
   </si>
   <si>
+    <t>WeaponMissile</t>
+  </si>
+  <si>
+    <t>icon_weapon_missile</t>
+  </si>
+  <si>
     <t>爆炸半径范围</t>
   </si>
   <si>
@@ -91,6 +121,12 @@
   </si>
   <si>
     <t>防护罩</t>
+  </si>
+  <si>
+    <t>WeaponCover</t>
+  </si>
+  <si>
+    <t>icon_weapon_cover</t>
   </si>
   <si>
     <t>旋转速度</t>
@@ -101,9 +137,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -123,14 +159,59 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,11 +224,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,16 +248,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,29 +272,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -212,54 +295,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,31 +316,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,55 +442,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,85 +490,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,6 +501,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -498,24 +567,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -526,21 +577,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -571,10 +607,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,76 +619,76 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -661,55 +697,55 @@
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,27 +1100,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="10.4583333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.3833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7666666666667" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.1666666666667" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="3" max="5" width="16.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.3833333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7666666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1666666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7666666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.1666666666667" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1097,123 +1134,186 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1">
         <v>5</v>
       </c>
-      <c r="E4" s="1">
+      <c r="H4" s="1">
         <v>100</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="I4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="1">
         <v>15</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
+      <c r="K4" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1">
         <v>100</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="1">
         <v>300</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
+      <c r="K5" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1">
         <v>60</v>
       </c>
-      <c r="E6" s="1">
+      <c r="H6" s="1">
         <v>30</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
+      <c r="I6" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableWeapon.xlsx
+++ b/DestroyViruses/Assets/Tables/TableWeapon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="11730"/>
+    <workbookView windowWidth="28720" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>id</t>
   </si>
@@ -111,6 +111,12 @@
     <t>WeaponNormal</t>
   </si>
   <si>
+    <t>WEAPON_NORMAL_NAME</t>
+  </si>
+  <si>
+    <t>基础武器描述</t>
+  </si>
+  <si>
     <t>icon_weapon_normal</t>
   </si>
   <si>
@@ -126,6 +132,9 @@
     <t>WeaponMissile</t>
   </si>
   <si>
+    <t>追踪导弹描述</t>
+  </si>
+  <si>
     <t>icon_weapon_missile</t>
   </si>
   <si>
@@ -141,6 +150,9 @@
     <t>WeaponCover</t>
   </si>
   <si>
+    <t>防护罩描述</t>
+  </si>
+  <si>
     <t>icon_weapon_cover</t>
   </si>
   <si>
@@ -153,6 +165,9 @@
     <t>WeaponLaser</t>
   </si>
   <si>
+    <t>激光器描述</t>
+  </si>
+  <si>
     <t>icon_weapon_laser</t>
   </si>
   <si>
@@ -166,6 +181,9 @@
   </si>
   <si>
     <t>WeaponRailgun</t>
+  </si>
+  <si>
+    <t>电磁炮描述</t>
   </si>
   <si>
     <t>icon_weapon_railgun</t>
@@ -177,9 +195,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -196,8 +214,77 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -206,59 +293,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,9 +321,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,20 +330,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -310,17 +344,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,13 +353,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,6 +367,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -361,19 +463,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,151 +541,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,47 +561,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,7 +574,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,16 +598,52 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,148 +661,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -794,54 +812,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1137,26 +1155,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="5" width="16.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5576923076923" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.2019230769231" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.3833333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.3846153846154" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7692307692308" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7666666666667" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1666666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7666666666667" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.1666666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7692307692308" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1634615384615" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7692307692308" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.1634615384615" style="1" customWidth="1"/>
     <col min="14" max="14" width="18.625" style="1" customWidth="1"/>
     <col min="15" max="15" width="13.25" style="1" customWidth="1"/>
     <col min="16" max="16" width="19.625" style="1" customWidth="1"/>
@@ -1295,13 +1315,13 @@
         <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G4" s="1">
         <v>6</v>
@@ -1310,13 +1330,13 @@
         <v>100</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J4" s="1">
         <v>15</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1324,19 +1344,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1">
         <v>26</v>
@@ -1345,19 +1365,19 @@
         <v>700</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J5" s="1">
         <v>400</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L5" s="1">
         <v>100</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1365,19 +1385,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G6" s="1">
         <v>46</v>
@@ -1386,7 +1406,7 @@
         <v>30</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1394,19 +1414,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G7" s="1">
         <v>71</v>
@@ -1415,13 +1435,13 @@
         <v>1000</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J7" s="1">
         <v>300</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1429,19 +1449,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G8" s="1">
         <v>96</v>
@@ -1450,7 +1470,7 @@
         <v>700</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1461,7 +1481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1469,7 +1489,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1477,7 +1497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1485,7 +1505,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableWeapon.xlsx
+++ b/DestroyViruses/Assets/Tables/TableWeapon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="26415" windowHeight="11730"/>
+    <workbookView windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -45,6 +45,12 @@
     <t>effect3</t>
   </si>
   <si>
+    <t>effect4</t>
+  </si>
+  <si>
+    <t>effect5</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -90,6 +96,15 @@
     <t>效果描述3</t>
   </si>
   <si>
+    <t>技能效果数值4</t>
+  </si>
+  <si>
+    <t>效果描述4</t>
+  </si>
+  <si>
+    <t>效果描述5</t>
+  </si>
+  <si>
     <t>基础武器</t>
   </si>
   <si>
@@ -114,10 +129,10 @@
     <t>icon_weapon_missile</t>
   </si>
   <si>
-    <t>爆炸半径范围</t>
-  </si>
-  <si>
-    <t>导弹飞行速度</t>
+    <t>爆炸范围（直径）</t>
+  </si>
+  <si>
+    <t>转向速度</t>
   </si>
   <si>
     <t>防护罩</t>
@@ -130,6 +145,30 @@
   </si>
   <si>
     <t>旋转速度</t>
+  </si>
+  <si>
+    <t>激光器</t>
+  </si>
+  <si>
+    <t>WeaponLaser</t>
+  </si>
+  <si>
+    <t>icon_weapon_laser</t>
+  </si>
+  <si>
+    <t>爆炸扩散速度</t>
+  </si>
+  <si>
+    <t>爆炸范围</t>
+  </si>
+  <si>
+    <t>电磁炮</t>
+  </si>
+  <si>
+    <t>WeaponRailgun</t>
+  </si>
+  <si>
+    <t>icon_weapon_railgun</t>
   </si>
 </sst>
 </file>
@@ -137,10 +176,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -159,9 +198,76 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,6 +279,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -181,60 +303,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,47 +318,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,6 +349,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -322,43 +367,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,31 +475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,7 +493,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,79 +517,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,34 +543,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -553,6 +574,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -567,17 +612,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,145 +646,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1100,28 +1139,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="5" width="16.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.3833333333333" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.7666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.7666666666667" style="1" customWidth="1"/>
     <col min="11" max="11" width="17.1666666666667" style="1" customWidth="1"/>
     <col min="12" max="12" width="16.7666666666667" style="1" customWidth="1"/>
     <col min="13" max="13" width="17.1666666666667" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="14" max="14" width="18.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1149,72 +1192,96 @@
       <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1222,69 +1289,75 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4" s="1">
         <v>100</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J4" s="1">
         <v>15</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G5" s="1">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J5" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="L5" s="1">
+        <v>100</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1292,28 +1365,92 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="H6" s="1">
         <v>30</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1">
+        <v>71</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="1">
+        <v>300</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1">
+        <v>96</v>
+      </c>
+      <c r="H8" s="1">
+        <v>700</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableWeapon.xlsx
+++ b/DestroyViruses/Assets/Tables/TableWeapon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="11730"/>
+    <workbookView windowWidth="21800" windowHeight="10280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>id</t>
   </si>
@@ -114,7 +114,7 @@
     <t>WEAPON_NORMAL_NAME</t>
   </si>
   <si>
-    <t>基础武器描述</t>
+    <t>WEAPON_NORMAL_DES</t>
   </si>
   <si>
     <t>icon_weapon_normal</t>
@@ -126,13 +126,22 @@
     <t>发射角度</t>
   </si>
   <si>
+    <t>子弹大小（直径）</t>
+  </si>
+  <si>
+    <t>碰撞次数</t>
+  </si>
+  <si>
     <t>追踪导弹</t>
   </si>
   <si>
     <t>WeaponMissile</t>
   </si>
   <si>
-    <t>追踪导弹描述</t>
+    <t>Weapon_Missile_Name</t>
+  </si>
+  <si>
+    <t>Weapon_Missile_DES</t>
   </si>
   <si>
     <t>icon_weapon_missile</t>
@@ -150,7 +159,10 @@
     <t>WeaponCover</t>
   </si>
   <si>
-    <t>防护罩描述</t>
+    <t>Weapon_Cover_Name</t>
+  </si>
+  <si>
+    <t>Weapon_Cover_DES</t>
   </si>
   <si>
     <t>icon_weapon_cover</t>
@@ -159,13 +171,19 @@
     <t>旋转速度</t>
   </si>
   <si>
+    <t>旋转范围（直径）</t>
+  </si>
+  <si>
     <t>激光器</t>
   </si>
   <si>
     <t>WeaponLaser</t>
   </si>
   <si>
-    <t>激光器描述</t>
+    <t>Weapon_Laser_Name</t>
+  </si>
+  <si>
+    <t>Weapon_Laser_DES</t>
   </si>
   <si>
     <t>icon_weapon_laser</t>
@@ -180,13 +198,16 @@
     <t>WeaponRailgun</t>
   </si>
   <si>
-    <t>电磁炮描述</t>
+    <t>Weapon_Railgun_Name</t>
+  </si>
+  <si>
+    <t>Weapon_Railgun_DES</t>
   </si>
   <si>
     <t>icon_weapon_railgun</t>
   </si>
   <si>
-    <t>持续时间</t>
+    <t>麻痹效果时间</t>
   </si>
 </sst>
 </file>
@@ -195,9 +216,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -214,6 +235,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -222,6 +271,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -230,14 +295,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -246,12 +328,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -259,32 +349,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,61 +371,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,13 +388,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,169 +562,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,48 +585,16 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -626,11 +615,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,157 +647,183 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -812,54 +833,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1155,28 +1176,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5583333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.2" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5576923076923" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.2019230769231" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.3833333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.3846153846154" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7692307692308" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7666666666667" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1666666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7666666666667" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.1666666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7692307692308" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1634615384615" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7692307692308" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.1634615384615" style="1" customWidth="1"/>
     <col min="14" max="14" width="18.625" style="1" customWidth="1"/>
     <col min="15" max="15" width="13.25" style="1" customWidth="1"/>
     <col min="16" max="16" width="19.625" style="1" customWidth="1"/>
@@ -1304,7 +1325,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1337,6 +1358,18 @@
       </c>
       <c r="K4" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="L4" s="1">
+        <v>100</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="1">
+        <v>10</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1344,19 +1377,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G5" s="1">
         <v>26</v>
@@ -1371,33 +1404,33 @@
         <v>400</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L5" s="1">
         <v>100</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G6" s="1">
         <v>46</v>
@@ -1406,7 +1439,13 @@
         <v>30</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="J6" s="1">
+        <v>300</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1414,19 +1453,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G7" s="1">
         <v>71</v>
@@ -1435,13 +1474,13 @@
         <v>1000</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1">
         <v>300</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1449,19 +1488,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G8" s="1">
         <v>96</v>
@@ -1476,13 +1515,13 @@
         <v>400</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L8" s="1">
         <v>2</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1493,7 +1532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1501,7 +1540,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1509,7 +1548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1517,7 +1556,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableWeapon.xlsx
+++ b/DestroyViruses/Assets/Tables/TableWeapon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28720" windowHeight="13200"/>
+    <workbookView windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -174,9 +174,6 @@
     <t>爆炸扩散速度</t>
   </si>
   <si>
-    <t>爆炸范围</t>
-  </si>
-  <si>
     <t>电磁炮</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>icon_weapon_railgun</t>
+  </si>
+  <si>
+    <t>持续时间</t>
   </si>
 </sst>
 </file>
@@ -194,10 +194,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -214,48 +214,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,6 +238,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -283,76 +298,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,12 +367,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -385,169 +499,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,56 +564,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,151 +610,199 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -812,54 +812,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1155,28 +1155,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5576923076923" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.2019230769231" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5583333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.2" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.3846153846154" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7692307692308" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.3833333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7666666666667" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7692307692308" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1634615384615" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7692307692308" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.1634615384615" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7666666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1666666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7666666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.1666666666667" style="1" customWidth="1"/>
     <col min="14" max="14" width="18.625" style="1" customWidth="1"/>
     <col min="15" max="15" width="13.25" style="1" customWidth="1"/>
     <col min="16" max="16" width="19.625" style="1" customWidth="1"/>
@@ -1441,27 +1441,27 @@
         <v>300</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="G8" s="1">
         <v>96</v>
@@ -1471,6 +1471,18 @@
       </c>
       <c r="I8" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="J8" s="1">
+        <v>400</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1481,7 +1493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1489,7 +1501,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1497,7 +1509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1505,7 +1517,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableWeapon.xlsx
+++ b/DestroyViruses/Assets/Tables/TableWeapon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21800" windowHeight="10280"/>
+    <workbookView windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
   <si>
     <t>id</t>
   </si>
@@ -51,6 +51,18 @@
     <t>effect5</t>
   </si>
   <si>
+    <t>fireSound</t>
+  </si>
+  <si>
+    <t>explosionSound</t>
+  </si>
+  <si>
+    <t>powerUpTips</t>
+  </si>
+  <si>
+    <t>speedUpTips</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -105,6 +117,18 @@
     <t>效果描述5</t>
   </si>
   <si>
+    <t>开火音效</t>
+  </si>
+  <si>
+    <t>爆炸音效</t>
+  </si>
+  <si>
+    <t>升级火力提示（多语言）</t>
+  </si>
+  <si>
+    <t>升级速度提示（多语言）</t>
+  </si>
+  <si>
     <t>基础武器</t>
   </si>
   <si>
@@ -130,6 +154,12 @@
   </si>
   <si>
     <t>碰撞次数</t>
+  </si>
+  <si>
+    <t>升级火力提示文本</t>
+  </si>
+  <si>
+    <t>升级速度提示文本</t>
   </si>
   <si>
     <t>追踪导弹</t>
@@ -215,9 +245,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -236,28 +266,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,19 +310,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,83 +403,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,187 +418,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,11 +612,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,52 +651,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,151 +674,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -833,54 +863,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1176,36 +1206,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5576923076923" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.2019230769231" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5583333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.2" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.3846153846154" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7692307692308" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.3833333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7666666666667" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7692307692308" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1634615384615" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7692307692308" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.1634615384615" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7666666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1666666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7666666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.1666666666667" style="1" customWidth="1"/>
     <col min="14" max="14" width="18.625" style="1" customWidth="1"/>
     <col min="15" max="15" width="13.25" style="1" customWidth="1"/>
     <col min="16" max="16" width="19.625" style="1" customWidth="1"/>
     <col min="17" max="17" width="11.625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="18" max="18" width="10.25" style="1" customWidth="1"/>
+    <col min="19" max="19" width="16.875" style="1" customWidth="1"/>
+    <col min="20" max="21" width="23.375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1239,110 +1272,146 @@
       <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:21">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G4" s="1">
         <v>6</v>
@@ -1351,25 +1420,31 @@
         <v>100</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J4" s="1">
         <v>15</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L4" s="1">
         <v>100</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N4" s="1">
         <v>10</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1377,19 +1452,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G5" s="1">
         <v>26</v>
@@ -1398,19 +1473,19 @@
         <v>700</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J5" s="1">
         <v>400</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="L5" s="1">
         <v>100</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1418,19 +1493,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G6" s="1">
         <v>46</v>
@@ -1439,13 +1514,13 @@
         <v>30</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J6" s="1">
         <v>300</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1453,19 +1528,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G7" s="1">
         <v>71</v>
@@ -1474,13 +1549,13 @@
         <v>1000</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="J7" s="1">
         <v>300</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1488,19 +1563,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G8" s="1">
         <v>96</v>
@@ -1509,19 +1584,19 @@
         <v>700</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J8" s="1">
         <v>400</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="L8" s="1">
         <v>2</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1532,7 +1607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1540,7 +1615,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1548,7 +1623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1556,7 +1631,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableWeapon.xlsx
+++ b/DestroyViruses/Assets/Tables/TableWeapon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="11730"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
   <si>
     <t>id</t>
   </si>
@@ -156,10 +156,10 @@
     <t>碰撞次数</t>
   </si>
   <si>
-    <t>升级火力提示文本</t>
-  </si>
-  <si>
-    <t>升级速度提示文本</t>
+    <t>Weapon_power_tips</t>
+  </si>
+  <si>
+    <t>Weapon_speed_tips</t>
   </si>
   <si>
     <t>追踪导弹</t>
@@ -183,6 +183,42 @@
     <t>转向速度</t>
   </si>
   <si>
+    <t>电磁炮</t>
+  </si>
+  <si>
+    <t>WeaponRailgun</t>
+  </si>
+  <si>
+    <t>Weapon_Railgun_Name</t>
+  </si>
+  <si>
+    <t>Weapon_Railgun_DES</t>
+  </si>
+  <si>
+    <t>icon_weapon_railgun</t>
+  </si>
+  <si>
+    <t>麻痹效果时间</t>
+  </si>
+  <si>
+    <t>激光器</t>
+  </si>
+  <si>
+    <t>WeaponLaser</t>
+  </si>
+  <si>
+    <t>Weapon_Laser_Name</t>
+  </si>
+  <si>
+    <t>Weapon_Laser_DES</t>
+  </si>
+  <si>
+    <t>icon_weapon_laser</t>
+  </si>
+  <si>
+    <t>爆炸扩散速度</t>
+  </si>
+  <si>
     <t>防护罩</t>
   </si>
   <si>
@@ -202,42 +238,6 @@
   </si>
   <si>
     <t>旋转范围（直径）</t>
-  </si>
-  <si>
-    <t>激光器</t>
-  </si>
-  <si>
-    <t>WeaponLaser</t>
-  </si>
-  <si>
-    <t>Weapon_Laser_Name</t>
-  </si>
-  <si>
-    <t>Weapon_Laser_DES</t>
-  </si>
-  <si>
-    <t>icon_weapon_laser</t>
-  </si>
-  <si>
-    <t>爆炸扩散速度</t>
-  </si>
-  <si>
-    <t>电磁炮</t>
-  </si>
-  <si>
-    <t>WeaponRailgun</t>
-  </si>
-  <si>
-    <t>Weapon_Railgun_Name</t>
-  </si>
-  <si>
-    <t>Weapon_Railgun_DES</t>
-  </si>
-  <si>
-    <t>icon_weapon_railgun</t>
-  </si>
-  <si>
-    <t>麻痹效果时间</t>
   </si>
 </sst>
 </file>
@@ -245,10 +245,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -266,22 +266,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,13 +355,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -310,20 +363,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -331,79 +387,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,19 +418,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,43 +550,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,115 +592,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,26 +612,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,34 +645,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,11 +675,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,10 +715,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -727,133 +727,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1210,8 +1210,8 @@
   <sheetPr/>
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7"/>
@@ -1417,7 +1417,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="1">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>42</v>
@@ -1435,7 +1435,7 @@
         <v>44</v>
       </c>
       <c r="N4" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>45</v>
@@ -1447,7 +1447,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:21">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="1">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>42</v>
@@ -1487,8 +1487,14 @@
       <c r="M5" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="T5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:21">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1511,92 +1517,110 @@
         <v>46</v>
       </c>
       <c r="H6" s="1">
-        <v>30</v>
+        <v>1600</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="1">
+        <v>400</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="1">
-        <v>300</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>61</v>
+      <c r="T6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:21">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="G7" s="1">
         <v>71</v>
       </c>
       <c r="H7" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J7" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="T7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:21">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G8" s="1">
         <v>96</v>
       </c>
       <c r="H8" s="1">
-        <v>700</v>
+        <v>30</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="J8" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="1">
-        <v>2</v>
-      </c>
-      <c r="M8" s="1" t="s">
         <v>73</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableWeapon.xlsx
+++ b/DestroyViruses/Assets/Tables/TableWeapon.xlsx
@@ -266,58 +266,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,9 +288,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,6 +370,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -363,47 +393,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,31 +418,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,151 +580,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,6 +609,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -623,54 +641,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,8 +663,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,16 +694,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -727,133 +727,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1211,7 +1211,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7"/>
@@ -1529,7 +1529,7 @@
         <v>53</v>
       </c>
       <c r="L6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>60</v>

--- a/DestroyViruses/Assets/Tables/TableWeapon.xlsx
+++ b/DestroyViruses/Assets/Tables/TableWeapon.xlsx
@@ -246,8 +246,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -265,8 +265,60 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,80 +340,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -370,21 +348,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -393,9 +356,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,7 +366,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,187 +418,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,24 +609,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -641,6 +623,54 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,23 +693,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,31 +709,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -727,133 +727,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1211,7 +1211,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7"/>
@@ -1476,7 +1476,7 @@
         <v>42</v>
       </c>
       <c r="J5" s="1">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>53</v>
